--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.082653666666667</v>
+        <v>0.7310083333333334</v>
       </c>
       <c r="H2">
-        <v>6.247961</v>
+        <v>2.193025</v>
       </c>
       <c r="I2">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="J2">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.067615666666667</v>
+        <v>0.3620403333333334</v>
       </c>
       <c r="N2">
-        <v>15.202847</v>
+        <v>1.086121</v>
       </c>
       <c r="O2">
-        <v>0.6207828410514926</v>
+        <v>0.138293228945037</v>
       </c>
       <c r="P2">
-        <v>0.6207828410514925</v>
+        <v>0.138293228945037</v>
       </c>
       <c r="Q2">
-        <v>10.55408834944078</v>
+        <v>0.2646545006694445</v>
       </c>
       <c r="R2">
-        <v>94.986795144967</v>
+        <v>2.381890506025</v>
       </c>
       <c r="S2">
-        <v>0.02931274700184986</v>
+        <v>0.002314657308585666</v>
       </c>
       <c r="T2">
-        <v>0.02931274700184985</v>
+        <v>0.002314657308585666</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.082653666666667</v>
+        <v>0.7310083333333334</v>
       </c>
       <c r="H3">
-        <v>6.247961</v>
+        <v>2.193025</v>
       </c>
       <c r="I3">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="J3">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.164931</v>
       </c>
       <c r="O3">
-        <v>0.1700679944331107</v>
+        <v>0.530310855165568</v>
       </c>
       <c r="P3">
-        <v>0.1700679944331107</v>
+        <v>0.530310855165568</v>
       </c>
       <c r="Q3">
-        <v>2.891369606187889</v>
+        <v>1.014866422919444</v>
       </c>
       <c r="R3">
-        <v>26.022326455691</v>
+        <v>9.133797806275</v>
       </c>
       <c r="S3">
-        <v>0.008030441185335978</v>
+        <v>0.008875979728690454</v>
       </c>
       <c r="T3">
-        <v>0.008030441185335977</v>
+        <v>0.008875979728690454</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.082653666666667</v>
+        <v>0.7310083333333334</v>
       </c>
       <c r="H4">
-        <v>6.247961</v>
+        <v>2.193025</v>
       </c>
       <c r="I4">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="J4">
-        <v>0.0472190032704503</v>
+        <v>0.01673731480740535</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.707340333333333</v>
+        <v>0.8675673333333332</v>
       </c>
       <c r="N4">
-        <v>5.122021</v>
+        <v>2.602702</v>
       </c>
       <c r="O4">
-        <v>0.2091491645153968</v>
+        <v>0.331395915889395</v>
       </c>
       <c r="P4">
-        <v>0.2091491645153968</v>
+        <v>0.331395915889395</v>
       </c>
       <c r="Q4">
-        <v>3.555798605464556</v>
+        <v>0.6341989503944444</v>
       </c>
       <c r="R4">
-        <v>32.002187449181</v>
+        <v>5.70779055355</v>
       </c>
       <c r="S4">
-        <v>0.00987581508326447</v>
+        <v>0.005546677770129229</v>
       </c>
       <c r="T4">
-        <v>0.009875815083264468</v>
+        <v>0.005546677770129229</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>111.84666</v>
       </c>
       <c r="I5">
-        <v>0.8452818134314446</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="J5">
-        <v>0.8452818134314447</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.067615666666667</v>
+        <v>0.3620403333333334</v>
       </c>
       <c r="N5">
-        <v>15.202847</v>
+        <v>1.086121</v>
       </c>
       <c r="O5">
-        <v>0.6207828410514926</v>
+        <v>0.138293228945037</v>
       </c>
       <c r="P5">
-        <v>0.6207828410514925</v>
+        <v>0.138293228945037</v>
       </c>
       <c r="Q5">
-        <v>188.9319621601134</v>
+        <v>13.49766735620667</v>
       </c>
       <c r="R5">
-        <v>1700.38765944102</v>
+        <v>121.47900620586</v>
       </c>
       <c r="S5">
-        <v>0.5247364456311299</v>
+        <v>0.1180500400177362</v>
       </c>
       <c r="T5">
-        <v>0.5247364456311299</v>
+        <v>0.1180500400177362</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>111.84666</v>
       </c>
       <c r="I6">
-        <v>0.8452818134314446</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="J6">
-        <v>0.8452818134314447</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>4.164931</v>
       </c>
       <c r="O6">
-        <v>0.1700679944331107</v>
+        <v>0.530310855165568</v>
       </c>
       <c r="P6">
-        <v>0.1700679944331107</v>
+        <v>0.530310855165568</v>
       </c>
       <c r="Q6">
-        <v>51.75929127560667</v>
+        <v>51.75929127560666</v>
       </c>
       <c r="R6">
         <v>465.83362148046</v>
       </c>
       <c r="S6">
-        <v>0.1437553827410686</v>
+        <v>0.4526846191364592</v>
       </c>
       <c r="T6">
-        <v>0.1437553827410686</v>
+        <v>0.4526846191364592</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>111.84666</v>
       </c>
       <c r="I7">
-        <v>0.8452818134314446</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="J7">
-        <v>0.8452818134314447</v>
+        <v>0.8536212576586365</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.707340333333333</v>
+        <v>0.8675673333333332</v>
       </c>
       <c r="N7">
-        <v>5.122021</v>
+        <v>2.602702</v>
       </c>
       <c r="O7">
-        <v>0.2091491645153968</v>
+        <v>0.331395915889395</v>
       </c>
       <c r="P7">
-        <v>0.2091491645153968</v>
+        <v>0.331395915889395</v>
       </c>
       <c r="Q7">
-        <v>63.65343792220668</v>
+        <v>32.34483618614666</v>
       </c>
       <c r="R7">
-        <v>572.8809412998601</v>
+        <v>291.1035256753199</v>
       </c>
       <c r="S7">
-        <v>0.1767899850592462</v>
+        <v>0.2828865985044411</v>
       </c>
       <c r="T7">
-        <v>0.1767899850592461</v>
+        <v>0.2828865985044411</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.741387</v>
+        <v>5.662136666666666</v>
       </c>
       <c r="H8">
-        <v>14.224161</v>
+        <v>16.98641</v>
       </c>
       <c r="I8">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="J8">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.067615666666667</v>
+        <v>0.3620403333333334</v>
       </c>
       <c r="N8">
-        <v>15.202847</v>
+        <v>1.086121</v>
       </c>
       <c r="O8">
-        <v>0.6207828410514926</v>
+        <v>0.138293228945037</v>
       </c>
       <c r="P8">
-        <v>0.6207828410514925</v>
+        <v>0.138293228945037</v>
       </c>
       <c r="Q8">
-        <v>24.02752704292967</v>
+        <v>2.049921846178889</v>
       </c>
       <c r="R8">
-        <v>216.247743386367</v>
+        <v>18.44929661561</v>
       </c>
       <c r="S8">
-        <v>0.0667336484185128</v>
+        <v>0.01792853161871508</v>
       </c>
       <c r="T8">
-        <v>0.06673364841851279</v>
+        <v>0.01792853161871508</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.741387</v>
+        <v>5.662136666666666</v>
       </c>
       <c r="H9">
-        <v>14.224161</v>
+        <v>16.98641</v>
       </c>
       <c r="I9">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="J9">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>4.164931</v>
       </c>
       <c r="O9">
-        <v>0.1700679944331107</v>
+        <v>0.530310855165568</v>
       </c>
       <c r="P9">
-        <v>0.1700679944331107</v>
+        <v>0.530310855165568</v>
       </c>
       <c r="Q9">
-        <v>6.582516566432334</v>
+        <v>7.860802843078888</v>
       </c>
       <c r="R9">
-        <v>59.242649097891</v>
+        <v>70.74722558771001</v>
       </c>
       <c r="S9">
-        <v>0.01828217050670607</v>
+        <v>0.06875025630041828</v>
       </c>
       <c r="T9">
-        <v>0.01828217050670607</v>
+        <v>0.06875025630041828</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.741387</v>
+        <v>5.662136666666666</v>
       </c>
       <c r="H10">
-        <v>14.224161</v>
+        <v>16.98641</v>
       </c>
       <c r="I10">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="J10">
-        <v>0.107499183298105</v>
+        <v>0.129641427533958</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.707340333333333</v>
+        <v>0.8675673333333332</v>
       </c>
       <c r="N10">
-        <v>5.122021</v>
+        <v>2.602702</v>
       </c>
       <c r="O10">
-        <v>0.2091491645153968</v>
+        <v>0.331395915889395</v>
       </c>
       <c r="P10">
-        <v>0.2091491645153968</v>
+        <v>0.331395915889395</v>
       </c>
       <c r="Q10">
-        <v>8.095161261042335</v>
+        <v>4.912284808868888</v>
       </c>
       <c r="R10">
-        <v>72.856451349381</v>
+        <v>44.21056327981999</v>
       </c>
       <c r="S10">
-        <v>0.02248336437288617</v>
+        <v>0.04296263961482465</v>
       </c>
       <c r="T10">
-        <v>0.02248336437288616</v>
+        <v>0.04296263961482465</v>
       </c>
     </row>
   </sheetData>
